--- a/data/193/ABS/310101.xlsx
+++ b/data/193/ABS/310101.xlsx
@@ -12,47 +12,47 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2133244X">Data1!$B$1:$B$10,Data1!$B$11:$B$171</definedName>
-    <definedName name="A2133244X_Data">Data1!$B$11:$B$171</definedName>
-    <definedName name="A2133244X_Latest">Data1!$B$171</definedName>
-    <definedName name="A2133245A">Data1!$C$1:$C$10,Data1!$C$11:$C$171</definedName>
-    <definedName name="A2133245A_Data">Data1!$C$11:$C$171</definedName>
-    <definedName name="A2133245A_Latest">Data1!$C$171</definedName>
-    <definedName name="A2133246C">Data1!$E$1:$E$10,Data1!$E$11:$E$171</definedName>
-    <definedName name="A2133246C_Data">Data1!$E$11:$E$171</definedName>
-    <definedName name="A2133246C_Latest">Data1!$E$171</definedName>
-    <definedName name="A2133247F">Data1!$F$1:$F$10,Data1!$F$11:$F$171</definedName>
-    <definedName name="A2133247F_Data">Data1!$F$11:$F$171</definedName>
-    <definedName name="A2133247F_Latest">Data1!$F$171</definedName>
-    <definedName name="A2133248J">Data1!$G$1:$G$10,Data1!$G$11:$G$171</definedName>
-    <definedName name="A2133248J_Data">Data1!$G$11:$G$171</definedName>
-    <definedName name="A2133248J_Latest">Data1!$G$171</definedName>
-    <definedName name="A2133249K">Data1!$H$1:$H$10,Data1!$H$11:$H$171</definedName>
-    <definedName name="A2133249K_Data">Data1!$H$11:$H$171</definedName>
-    <definedName name="A2133249K_Latest">Data1!$H$171</definedName>
-    <definedName name="A2133250V">Data1!$J$1:$J$10,Data1!$J$11:$J$171</definedName>
-    <definedName name="A2133250V_Data">Data1!$J$11:$J$171</definedName>
-    <definedName name="A2133250V_Latest">Data1!$J$171</definedName>
-    <definedName name="A2133251W">Data1!$L$1:$L$10,Data1!$L$11:$L$171</definedName>
-    <definedName name="A2133251W_Data">Data1!$L$11:$L$171</definedName>
-    <definedName name="A2133251W_Latest">Data1!$L$171</definedName>
-    <definedName name="A2133252X">Data1!$D$1:$D$10,Data1!$D$11:$D$171</definedName>
-    <definedName name="A2133252X_Data">Data1!$D$11:$D$171</definedName>
-    <definedName name="A2133252X_Latest">Data1!$D$171</definedName>
-    <definedName name="A2133253A">Data1!$I$1:$I$10,Data1!$I$11:$I$171</definedName>
-    <definedName name="A2133253A_Data">Data1!$I$11:$I$171</definedName>
-    <definedName name="A2133253A_Latest">Data1!$I$171</definedName>
-    <definedName name="A2133254C">Data1!$K$1:$K$10,Data1!$K$11:$K$171</definedName>
-    <definedName name="A2133254C_Data">Data1!$K$11:$K$171</definedName>
-    <definedName name="A2133254C_Latest">Data1!$K$171</definedName>
-    <definedName name="A2133255F">Data1!$M$1:$M$10,Data1!$M$11:$M$171</definedName>
-    <definedName name="A2133255F_Data">Data1!$M$11:$M$171</definedName>
-    <definedName name="A2133255F_Latest">Data1!$M$171</definedName>
-    <definedName name="A2133256J">Data1!$N$1:$N$10,Data1!$N$11:$N$171</definedName>
-    <definedName name="A2133256J_Data">Data1!$N$11:$N$171</definedName>
-    <definedName name="A2133256J_Latest">Data1!$N$171</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$171</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$171</definedName>
+    <definedName name="A2133244X">Data1!$B$1:$B$10,Data1!$B$11:$B$172</definedName>
+    <definedName name="A2133244X_Data">Data1!$B$11:$B$172</definedName>
+    <definedName name="A2133244X_Latest">Data1!$B$172</definedName>
+    <definedName name="A2133245A">Data1!$C$1:$C$10,Data1!$C$11:$C$172</definedName>
+    <definedName name="A2133245A_Data">Data1!$C$11:$C$172</definedName>
+    <definedName name="A2133245A_Latest">Data1!$C$172</definedName>
+    <definedName name="A2133246C">Data1!$E$1:$E$10,Data1!$E$11:$E$172</definedName>
+    <definedName name="A2133246C_Data">Data1!$E$11:$E$172</definedName>
+    <definedName name="A2133246C_Latest">Data1!$E$172</definedName>
+    <definedName name="A2133247F">Data1!$F$1:$F$10,Data1!$F$11:$F$172</definedName>
+    <definedName name="A2133247F_Data">Data1!$F$11:$F$172</definedName>
+    <definedName name="A2133247F_Latest">Data1!$F$172</definedName>
+    <definedName name="A2133248J">Data1!$G$1:$G$10,Data1!$G$11:$G$172</definedName>
+    <definedName name="A2133248J_Data">Data1!$G$11:$G$172</definedName>
+    <definedName name="A2133248J_Latest">Data1!$G$172</definedName>
+    <definedName name="A2133249K">Data1!$H$1:$H$10,Data1!$H$11:$H$172</definedName>
+    <definedName name="A2133249K_Data">Data1!$H$11:$H$172</definedName>
+    <definedName name="A2133249K_Latest">Data1!$H$172</definedName>
+    <definedName name="A2133250V">Data1!$J$1:$J$10,Data1!$J$11:$J$172</definedName>
+    <definedName name="A2133250V_Data">Data1!$J$11:$J$172</definedName>
+    <definedName name="A2133250V_Latest">Data1!$J$172</definedName>
+    <definedName name="A2133251W">Data1!$L$1:$L$10,Data1!$L$11:$L$172</definedName>
+    <definedName name="A2133251W_Data">Data1!$L$11:$L$172</definedName>
+    <definedName name="A2133251W_Latest">Data1!$L$172</definedName>
+    <definedName name="A2133252X">Data1!$D$1:$D$10,Data1!$D$11:$D$172</definedName>
+    <definedName name="A2133252X_Data">Data1!$D$11:$D$172</definedName>
+    <definedName name="A2133252X_Latest">Data1!$D$172</definedName>
+    <definedName name="A2133253A">Data1!$I$1:$I$10,Data1!$I$11:$I$172</definedName>
+    <definedName name="A2133253A_Data">Data1!$I$11:$I$172</definedName>
+    <definedName name="A2133253A_Latest">Data1!$I$172</definedName>
+    <definedName name="A2133254C">Data1!$K$1:$K$10,Data1!$K$11:$K$172</definedName>
+    <definedName name="A2133254C_Data">Data1!$K$11:$K$172</definedName>
+    <definedName name="A2133254C_Latest">Data1!$K$172</definedName>
+    <definedName name="A2133255F">Data1!$M$1:$M$10,Data1!$M$11:$M$172</definedName>
+    <definedName name="A2133255F_Data">Data1!$M$11:$M$172</definedName>
+    <definedName name="A2133255F_Latest">Data1!$M$172</definedName>
+    <definedName name="A2133256J">Data1!$N$1:$N$10,Data1!$N$11:$N$172</definedName>
+    <definedName name="A2133256J_Data">Data1!$N$11:$N$172</definedName>
+    <definedName name="A2133256J_Latest">Data1!$N$172</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$172</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$172</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2028,6 +2028,32 @@
       </text>
     </comment>
     <comment ref="J171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I172" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not applicable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2206,7 +2232,7 @@
     <t>TABLE 1. Population Change, Summary - Australia ('000)</t>
   </si>
   <si>
-    <t>EN Q U I R I E S</t>
+    <t>E N Q U I R I E S</t>
   </si>
   <si>
     <t>For further information about these and related statistics visit www.abs.gov.au/about/contact-us</t>
@@ -2224,7 +2250,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -2938,10 +2964,10 @@
         <v>29738</v>
       </c>
       <c r="G12" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H12" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>22</v>
@@ -2970,10 +2996,10 @@
         <v>29738</v>
       </c>
       <c r="G13" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H13" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>22</v>
@@ -3002,10 +3028,10 @@
         <v>29738</v>
       </c>
       <c r="G14" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H14" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>22</v>
@@ -3034,10 +3060,10 @@
         <v>29738</v>
       </c>
       <c r="G15" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H15" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>22</v>
@@ -3066,10 +3092,10 @@
         <v>29738</v>
       </c>
       <c r="G16" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H16" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>22</v>
@@ -3098,10 +3124,10 @@
         <v>29738</v>
       </c>
       <c r="G17" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H17" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>22</v>
@@ -3130,10 +3156,10 @@
         <v>29738</v>
       </c>
       <c r="G18" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H18" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>22</v>
@@ -3162,10 +3188,10 @@
         <v>29738</v>
       </c>
       <c r="G19" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H19" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>22</v>
@@ -3194,10 +3220,10 @@
         <v>29738</v>
       </c>
       <c r="G20" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H20" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>22</v>
@@ -3226,10 +3252,10 @@
         <v>29738</v>
       </c>
       <c r="G21" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H21" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>22</v>
@@ -3258,10 +3284,10 @@
         <v>29738</v>
       </c>
       <c r="G22" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H22" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>22</v>
@@ -3290,10 +3316,10 @@
         <v>29738</v>
       </c>
       <c r="G23" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H23" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>22</v>
@@ -3322,10 +3348,10 @@
         <v>29738</v>
       </c>
       <c r="G24" s="11">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H24" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>39</v>
@@ -3373,7 +3399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3697,43 +3723,43 @@
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="C8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="D8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="E8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="F8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="G8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="H8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="I8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="J8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="K8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="L8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="M8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="N8" s="6">
-        <v>44348</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3741,43 +3767,43 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N9" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -10480,21 +10506,21 @@
         <v>72.3</v>
       </c>
       <c r="G168" s="9">
-        <v>19.899999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H168" s="9">
-        <v>62.6</v>
+        <v>62.2</v>
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9">
-        <v>-42.7</v>
+        <v>-42.6</v>
       </c>
       <c r="L168" s="9">
-        <v>25681.1</v>
+        <v>25681.3</v>
       </c>
       <c r="M168" s="9">
-        <v>208.9</v>
+        <v>209</v>
       </c>
       <c r="N168" s="10">
         <v>0.82</v>
@@ -10514,27 +10540,27 @@
         <v>31.9</v>
       </c>
       <c r="E169" s="9">
-        <v>99.4</v>
+        <v>95.3</v>
       </c>
       <c r="F169" s="9">
-        <v>99.4</v>
+        <v>95.3</v>
       </c>
       <c r="G169" s="9">
-        <v>39.9</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H169" s="9">
-        <v>69.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
       <c r="K169" s="9">
-        <v>-29.3</v>
+        <v>-29.6</v>
       </c>
       <c r="L169" s="9">
-        <v>25683.7</v>
+        <v>25683.599999999999</v>
       </c>
       <c r="M169" s="9">
-        <v>125.8</v>
+        <v>125.6</v>
       </c>
       <c r="N169" s="10">
         <v>0.49</v>
@@ -10554,27 +10580,27 @@
         <v>35.700000000000003</v>
       </c>
       <c r="E170" s="9">
-        <v>98.6</v>
+        <v>94.7</v>
       </c>
       <c r="F170" s="9">
-        <v>98.6</v>
+        <v>94.7</v>
       </c>
       <c r="G170" s="9">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="H170" s="9">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
       <c r="K170" s="9">
-        <v>-14.4</v>
+        <v>-14.6</v>
       </c>
       <c r="L170" s="9">
-        <v>25704.9</v>
+        <v>25704.6</v>
       </c>
       <c r="M170" s="9">
-        <v>36.299999999999997</v>
+        <v>35.9</v>
       </c>
       <c r="N170" s="10">
         <v>0.14000000000000001</v>
@@ -10594,13 +10620,13 @@
         <v>36.700000000000003</v>
       </c>
       <c r="E171" s="9">
-        <v>127.4</v>
+        <v>121.7</v>
       </c>
       <c r="F171" s="9">
-        <v>127.4</v>
+        <v>121.7</v>
       </c>
       <c r="G171" s="9">
-        <v>45.1</v>
+        <v>44.3</v>
       </c>
       <c r="H171" s="9">
         <v>47.4</v>
@@ -10608,16 +10634,56 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
       <c r="K171" s="9">
-        <v>-2.2999999999999998</v>
+        <v>-3.1</v>
       </c>
       <c r="L171" s="9">
-        <v>25739.3</v>
+        <v>25738.1</v>
       </c>
       <c r="M171" s="9">
-        <v>46</v>
+        <v>44.9</v>
       </c>
       <c r="N171" s="10">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" s="11">
+        <v>44440</v>
+      </c>
+      <c r="B172" s="9">
+        <v>79.2</v>
+      </c>
+      <c r="C172" s="9">
+        <v>47.2</v>
+      </c>
+      <c r="D172" s="9">
+        <v>32</v>
+      </c>
+      <c r="E172" s="9">
+        <v>145.6</v>
+      </c>
+      <c r="F172" s="9">
+        <v>145.6</v>
+      </c>
+      <c r="G172" s="9">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H172" s="9">
+        <v>55.7</v>
+      </c>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="L172" s="9">
+        <v>25750.2</v>
+      </c>
+      <c r="M172" s="9">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="N172" s="10">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
